--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2752575.550563949</v>
+        <v>2758695.361851871</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1576288.714784224</v>
+        <v>1576288.714784222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3691417.332086572</v>
+        <v>3691417.332086571</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>236.3035458719355</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>216.9961286491656</v>
+        <v>225.7136957216108</v>
       </c>
       <c r="E11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.50654367133379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.89977204207756</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>198.7829125710628</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>167.4110393926752</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.56383775079524</v>
+        <v>37.56383775079522</v>
       </c>
       <c r="C12" t="n">
-        <v>43.73915308924364</v>
+        <v>43.73915308924362</v>
       </c>
       <c r="D12" t="n">
-        <v>18.47571966556666</v>
+        <v>18.47571966556663</v>
       </c>
       <c r="E12" t="n">
-        <v>28.67573455632885</v>
+        <v>28.67573455632882</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>16.09986649431175</v>
       </c>
       <c r="G12" t="n">
-        <v>70.84948294384458</v>
+        <v>8.374171264138511</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.47531167970639</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>42.71382520476573</v>
+        <v>42.7138252047657</v>
       </c>
       <c r="T12" t="n">
-        <v>71.19538279574951</v>
+        <v>71.19538279574948</v>
       </c>
       <c r="U12" t="n">
-        <v>96.97203618190272</v>
+        <v>96.97203618190269</v>
       </c>
       <c r="V12" t="n">
-        <v>103.8312412503532</v>
+        <v>103.8312412503531</v>
       </c>
       <c r="W12" t="n">
         <v>122.7256372618475</v>
       </c>
       <c r="X12" t="n">
-        <v>76.80363930440538</v>
+        <v>76.80363930440535</v>
       </c>
       <c r="Y12" t="n">
-        <v>76.71334987823226</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.8626342828652</v>
+        <v>25.62062971648599</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19.64612711914026</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>16.45170212385912</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>26.48112902818619</v>
+        <v>26.48112902818616</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.88761591643662</v>
+        <v>48.32404547809736</v>
       </c>
       <c r="S13" t="n">
-        <v>95.04725213790016</v>
+        <v>95.04725213790013</v>
       </c>
       <c r="T13" t="n">
-        <v>98.9762435292094</v>
+        <v>98.97624352920937</v>
       </c>
       <c r="U13" t="n">
         <v>157.3496834574188</v>
@@ -1591,10 +1591,10 @@
         <v>157.5536524375189</v>
       </c>
       <c r="X13" t="n">
-        <v>96.74030948996506</v>
+        <v>96.74030948996503</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.61530745302269</v>
+        <v>89.61530745302267</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>225.496690640665</v>
       </c>
       <c r="D14" t="n">
-        <v>214.9068404903404</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>99.89109539390248</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>70.6996884400634</v>
+        <v>70.69968844006337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.09291681080714</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.2438684559028</v>
       </c>
       <c r="T14" t="n">
-        <v>83.31964843378884</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>88.82589950319549</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.9548995481265</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.75698251952483</v>
+        <v>26.7569825195248</v>
       </c>
       <c r="C15" t="n">
-        <v>32.93229785797323</v>
+        <v>32.9322978579732</v>
       </c>
       <c r="D15" t="n">
-        <v>7.668864434296239</v>
+        <v>7.668864434296211</v>
       </c>
       <c r="E15" t="n">
-        <v>17.86887932505843</v>
+        <v>17.8688793250584</v>
       </c>
       <c r="F15" t="n">
-        <v>5.293011263041365</v>
+        <v>5.293011263041336</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>89.56705633517609</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>31.90696997349528</v>
       </c>
       <c r="T15" t="n">
-        <v>60.38852756447909</v>
+        <v>60.38852756447906</v>
       </c>
       <c r="U15" t="n">
-        <v>86.1651809506323</v>
+        <v>86.16518095063228</v>
       </c>
       <c r="V15" t="n">
-        <v>93.02438601908275</v>
+        <v>93.02438601908273</v>
       </c>
       <c r="W15" t="n">
-        <v>111.9187820305771</v>
+        <v>229.0265952595996</v>
       </c>
       <c r="X15" t="n">
-        <v>65.99678407313496</v>
+        <v>65.99678407313493</v>
       </c>
       <c r="Y15" t="n">
-        <v>65.90649464696185</v>
+        <v>65.90649464696182</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.05577905159478</v>
+        <v>40.05577905159475</v>
       </c>
       <c r="C16" t="n">
-        <v>27.47061996828532</v>
+        <v>27.47061996828529</v>
       </c>
       <c r="D16" t="n">
-        <v>8.839271887869842</v>
+        <v>8.839271887869813</v>
       </c>
       <c r="E16" t="n">
-        <v>6.657761516226657</v>
+        <v>6.657761516226628</v>
       </c>
       <c r="F16" t="n">
-        <v>5.644846892588731</v>
+        <v>5.644846892588703</v>
       </c>
       <c r="G16" t="n">
-        <v>28.21477822811624</v>
+        <v>28.21477822811622</v>
       </c>
       <c r="H16" t="n">
-        <v>22.45097137709706</v>
+        <v>22.45097137709703</v>
       </c>
       <c r="I16" t="n">
-        <v>15.67427379691577</v>
+        <v>15.67427379691574</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>37.51719024682688</v>
       </c>
       <c r="S16" t="n">
-        <v>84.24039690662974</v>
+        <v>84.24039690662971</v>
       </c>
       <c r="T16" t="n">
-        <v>88.16938829793898</v>
+        <v>88.16938829793895</v>
       </c>
       <c r="U16" t="n">
-        <v>146.5428282261484</v>
+        <v>146.5428282261483</v>
       </c>
       <c r="V16" t="n">
         <v>112.3614421934855</v>
@@ -1828,10 +1828,10 @@
         <v>146.7467972062485</v>
       </c>
       <c r="X16" t="n">
-        <v>85.93345425869464</v>
+        <v>85.93345425869461</v>
       </c>
       <c r="Y16" t="n">
-        <v>78.80845222175228</v>
+        <v>78.80845222175225</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>13.40725235004083</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,7 +1862,7 @@
         <v>183.4988168404989</v>
       </c>
       <c r="I17" t="n">
-        <v>2.654916853167154</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>230.2619533807854</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.55719837459912</v>
+        <v>13.51156958476089</v>
       </c>
       <c r="C18" t="n">
-        <v>16.73251371304752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.20194811908441</v>
+        <v>1.669095180132729</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>15.70718582856961</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>44.18874341955339</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>226.7578563882124</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>170.1742893408992</v>
       </c>
       <c r="D20" t="n">
-        <v>198.7070563454147</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>225.9543847969936</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>174.2828546237836</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>67.11986428886314</v>
       </c>
       <c r="U20" t="n">
-        <v>95.36966763256828</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>230.2619533807854</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>10.55719837459912</v>
       </c>
       <c r="C21" t="n">
-        <v>16.73251371304752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>47.21354722221231</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>15.70718582856961</v>
       </c>
       <c r="T21" t="n">
         <v>44.18874341955339</v>
       </c>
       <c r="U21" t="n">
-        <v>69.9653968057066</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>76.82460187415705</v>
       </c>
       <c r="W21" t="n">
-        <v>95.71899788565139</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>49.79699992820926</v>
       </c>
       <c r="Y21" t="n">
-        <v>85.49297211473012</v>
+        <v>49.70671050203615</v>
       </c>
     </row>
     <row r="22">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.7578563882124</v>
+        <v>16.71892857586924</v>
       </c>
       <c r="C23" t="n">
         <v>209.2969064957393</v>
@@ -2324,16 +2324,16 @@
         <v>198.7070563454147</v>
       </c>
       <c r="E23" t="n">
-        <v>225.9543847969936</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>201.0251375807611</v>
+        <v>250.9000604664432</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>259.3267522398668</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>183.4988168404989</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>53.04408431097713</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>67.11986428886314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>95.36966763256828</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>171.7762731948667</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>213.7551154032008</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>230.2619533807854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.55719837459912</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>16.73251371304752</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.669095180132729</v>
+        <v>51.45308913720927</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>58.31491366770604</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>69.9653968057066</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>49.79699992820926</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>49.70671050203615</v>
@@ -2555,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>229.4132366083077</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>246.070714909562</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>271.0163905790116</v>
       </c>
       <c r="G26" t="n">
         <v>279.4430823524352</v>
       </c>
       <c r="H26" t="n">
-        <v>203.6151469530673</v>
+        <v>203.6151469530674</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61623440770606</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.00946277844983</v>
+        <v>14.00946277844989</v>
       </c>
       <c r="S26" t="n">
-        <v>73.16041442354549</v>
+        <v>73.16041442354555</v>
       </c>
       <c r="T26" t="n">
-        <v>87.2361944014315</v>
+        <v>87.23619440143156</v>
       </c>
       <c r="U26" t="n">
-        <v>115.4859977451366</v>
+        <v>115.4859977451367</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2.339692693753809</v>
       </c>
       <c r="W26" t="n">
-        <v>194.9071952052587</v>
+        <v>213.3813135547132</v>
       </c>
       <c r="X26" t="n">
-        <v>233.8714455157692</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.67352848716749</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>36.84884382561594</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5854104019389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>116.6557710471316</v>
+        <v>21.78542529270115</v>
       </c>
       <c r="F27" t="n">
-        <v>9.209557230684027</v>
+        <v>9.209557230684084</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>35.82351594113803</v>
       </c>
       <c r="T27" t="n">
-        <v>64.30507353212175</v>
+        <v>64.30507353212181</v>
       </c>
       <c r="U27" t="n">
-        <v>90.08172691827497</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>96.94093198672542</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>115.8353279982198</v>
+        <v>187.0814628264463</v>
       </c>
       <c r="X27" t="n">
-        <v>69.91333004077762</v>
+        <v>69.91333004077768</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>69.82304061460457</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.97232501923745</v>
+        <v>43.9723250192375</v>
       </c>
       <c r="C28" t="n">
-        <v>31.38716593592798</v>
+        <v>31.38716593592804</v>
       </c>
       <c r="D28" t="n">
-        <v>12.7558178555125</v>
+        <v>12.75581785551256</v>
       </c>
       <c r="E28" t="n">
-        <v>10.57430748386932</v>
+        <v>10.57430748386938</v>
       </c>
       <c r="F28" t="n">
-        <v>9.561392860231393</v>
+        <v>9.56139286023145</v>
       </c>
       <c r="G28" t="n">
-        <v>32.13132419575891</v>
+        <v>32.13132419575896</v>
       </c>
       <c r="H28" t="n">
-        <v>26.36751734473972</v>
+        <v>26.36751734473978</v>
       </c>
       <c r="I28" t="n">
-        <v>19.59081976455844</v>
+        <v>19.59081976455849</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.43373621446963</v>
+        <v>41.43373621446969</v>
       </c>
       <c r="S28" t="n">
-        <v>88.1569428742724</v>
+        <v>88.15694287427246</v>
       </c>
       <c r="T28" t="n">
-        <v>92.08593426558164</v>
+        <v>92.0859342655817</v>
       </c>
       <c r="U28" t="n">
-        <v>150.459374193791</v>
+        <v>150.4593741937911</v>
       </c>
       <c r="V28" t="n">
-        <v>116.2779881611281</v>
+        <v>116.2779881611282</v>
       </c>
       <c r="W28" t="n">
-        <v>150.6633431738911</v>
+        <v>150.6633431738912</v>
       </c>
       <c r="X28" t="n">
-        <v>89.8500002263373</v>
+        <v>89.85000022633736</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.72499818939494</v>
+        <v>82.724998189395</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.155107082992449</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>218.8233864579831</v>
+        <v>133.1765352143331</v>
       </c>
       <c r="E29" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>279.4430823524352</v>
+        <v>279.4430823524353</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>203.6151469530674</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>191.8926033074351</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>213.3813135547132</v>
       </c>
       <c r="X29" t="n">
-        <v>233.8714455157692</v>
+        <v>233.8714455157693</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.3782834933537</v>
+        <v>250.3782834933538</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.67352848716749</v>
+        <v>30.67352848716757</v>
       </c>
       <c r="C30" t="n">
-        <v>73.13974897004415</v>
+        <v>36.84884382561597</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>11.58541040193899</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>9.209557230684027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>1.483862000510868</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>35.82351594113806</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>90.08172691827497</v>
+        <v>90.08172691827505</v>
       </c>
       <c r="V30" t="n">
-        <v>96.94093198672542</v>
+        <v>96.9409319867255</v>
       </c>
       <c r="W30" t="n">
-        <v>115.8353279982198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>69.91333004077762</v>
+        <v>75.38704294379204</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>69.82304061460459</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.97232501923745</v>
+        <v>43.97232501923753</v>
       </c>
       <c r="C31" t="n">
-        <v>31.38716593592798</v>
+        <v>31.38716593592807</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7558178555125</v>
+        <v>12.75581785551259</v>
       </c>
       <c r="E31" t="n">
-        <v>10.57430748386932</v>
+        <v>10.5743074838694</v>
       </c>
       <c r="F31" t="n">
-        <v>9.561392860231393</v>
+        <v>9.561392860231479</v>
       </c>
       <c r="G31" t="n">
-        <v>32.13132419575891</v>
+        <v>32.13132419575899</v>
       </c>
       <c r="H31" t="n">
-        <v>26.36751734473972</v>
+        <v>26.36751734473981</v>
       </c>
       <c r="I31" t="n">
-        <v>19.59081976455844</v>
+        <v>19.59081976455852</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.43373621446963</v>
+        <v>41.43373621446964</v>
       </c>
       <c r="S31" t="n">
-        <v>88.1569428742724</v>
+        <v>88.15694287427249</v>
       </c>
       <c r="T31" t="n">
-        <v>92.08593426558164</v>
+        <v>92.08593426558173</v>
       </c>
       <c r="U31" t="n">
-        <v>150.459374193791</v>
+        <v>150.4593741937911</v>
       </c>
       <c r="V31" t="n">
-        <v>116.2779881611281</v>
+        <v>116.2779881611282</v>
       </c>
       <c r="W31" t="n">
-        <v>150.6633431738911</v>
+        <v>150.6633431738912</v>
       </c>
       <c r="X31" t="n">
-        <v>89.8500002263373</v>
+        <v>89.85000022633739</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.72499818939494</v>
+        <v>82.72499818939502</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11.96494733007904</v>
+        <v>159.6379920993492</v>
       </c>
       <c r="C32" t="n">
         <v>142.1770422068762</v>
       </c>
       <c r="D32" t="n">
-        <v>131.5871920565516</v>
+        <v>100.2930998389175</v>
       </c>
       <c r="E32" t="n">
         <v>158.8345205081304</v>
@@ -3044,7 +3044,7 @@
         <v>192.2068879510037</v>
       </c>
       <c r="H32" t="n">
-        <v>116.3789525516358</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.24658336478675</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>129.9796159656094</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>94.23340442601807</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>158.8345205081304</v>
+        <v>11.35884874460735</v>
       </c>
       <c r="F35" t="n">
         <v>183.7801961775801</v>
       </c>
       <c r="G35" t="n">
-        <v>192.2068879510037</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>116.3789525516358</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>28.24980334370514</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>126.1451191532817</v>
       </c>
       <c r="X35" t="n">
         <v>146.6352511143377</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>163.1420890919222</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,22 +3351,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.6381620797218</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>9.704737585293913</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>226.209050265758</v>
+        <v>28.59913359678825</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>142.7743364298717</v>
+        <v>159.6379920993492</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>158.8345205081304</v>
       </c>
       <c r="F38" t="n">
-        <v>183.7801961775801</v>
+        <v>41.76999964104298</v>
       </c>
       <c r="G38" t="n">
         <v>192.2068879510037</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>104.6564089060035</v>
       </c>
       <c r="W38" t="n">
-        <v>126.1451191532817</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>146.6352511143377</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>63.56439358896057</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>18.2390397300037</v>
+        <v>2.845532516843463</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>28.59913359678825</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>207.3438396043886</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3785,22 +3785,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V41" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>204.1639656650719</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>65.58914640430966</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>47.98433872981194</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>172.0761955788632</v>
       </c>
       <c r="V43" t="n">
-        <v>137.8948095462003</v>
+        <v>54.2563978650208</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.01198286203525</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63.09720510351012</v>
+        <v>63.09720510351009</v>
       </c>
       <c r="C45" t="n">
-        <v>69.27252044195852</v>
+        <v>69.27252044195849</v>
       </c>
       <c r="D45" t="n">
-        <v>44.00908701828153</v>
+        <v>44.00908701828151</v>
       </c>
       <c r="E45" t="n">
-        <v>54.20910190904372</v>
+        <v>54.2091019090437</v>
       </c>
       <c r="F45" t="n">
-        <v>41.63323384702666</v>
+        <v>41.63323384702663</v>
       </c>
       <c r="G45" t="n">
-        <v>33.90753861685342</v>
+        <v>33.90753861685339</v>
       </c>
       <c r="H45" t="n">
-        <v>8.799465690139243</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.3232174638942</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>96.72875014846439</v>
+        <v>24.4868246994302</v>
       </c>
       <c r="U45" t="n">
         <v>122.5054035346176</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>129.364608603068</v>
       </c>
       <c r="W45" t="n">
-        <v>148.2590046145624</v>
+        <v>148.2590046145623</v>
       </c>
       <c r="X45" t="n">
-        <v>102.3370066571203</v>
+        <v>102.3370066571202</v>
       </c>
       <c r="Y45" t="n">
         <v>102.2467172309471</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>41.98506947657403</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>64.55500081210154</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.79119396108236</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>52.01449638090106</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>73.85741283081224</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>66.51558906568653</v>
       </c>
       <c r="T46" t="n">
-        <v>124.5096108819243</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>182.8830508101337</v>
+        <v>182.8830508101336</v>
       </c>
       <c r="V46" t="n">
-        <v>148.7016647774708</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>70.32533704509565</v>
+        <v>183.0870197902337</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>122.2736768426799</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.1486748057375</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>329.6046172445002</v>
       </c>
       <c r="C11" t="n">
-        <v>725.3667051349438</v>
+        <v>329.6046172445002</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>101.6109852024691</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>101.6109852024691</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>101.6109852024691</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>101.6109852024691</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>101.6109852024691</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>942.9462746600528</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>942.9462746600528</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>942.9462746600528</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>942.9462746600528</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.1554538812015</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.1554538812015</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>573.0533938886003</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>573.0533938886003</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>329.1895296237154</v>
+        <v>198.9174630589963</v>
       </c>
       <c r="C12" t="n">
-        <v>285.0085669073076</v>
+        <v>154.7365003425886</v>
       </c>
       <c r="D12" t="n">
-        <v>266.3462238107757</v>
+        <v>136.0741572460566</v>
       </c>
       <c r="E12" t="n">
-        <v>237.3808353700394</v>
+        <v>107.1087688053205</v>
       </c>
       <c r="F12" t="n">
-        <v>90.84627739692442</v>
+        <v>90.84627739692475</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>82.38751854425959</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5124,10 +5124,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
         <v>781.4136778972854</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>920.9118775260243</v>
+        <v>920.9118775260245</v>
       </c>
       <c r="T12" t="n">
-        <v>848.9973494495097</v>
+        <v>848.9973494495098</v>
       </c>
       <c r="U12" t="n">
-        <v>751.045797750618</v>
+        <v>751.0457977506181</v>
       </c>
       <c r="V12" t="n">
-        <v>646.1657560835946</v>
+        <v>646.1657560835947</v>
       </c>
       <c r="W12" t="n">
-        <v>522.2004659201123</v>
+        <v>522.2004659201124</v>
       </c>
       <c r="X12" t="n">
-        <v>444.6210322792987</v>
+        <v>444.6210322792989</v>
       </c>
       <c r="Y12" t="n">
-        <v>367.1328000790641</v>
+        <v>236.860733514345</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.8743311378152</v>
+        <v>62.64763922338977</v>
       </c>
       <c r="C13" t="n">
-        <v>65.8743311378152</v>
+        <v>62.64763922338977</v>
       </c>
       <c r="D13" t="n">
-        <v>46.02975829019877</v>
+        <v>62.64763922338977</v>
       </c>
       <c r="E13" t="n">
-        <v>46.02975829019877</v>
+        <v>62.64763922338977</v>
       </c>
       <c r="F13" t="n">
-        <v>46.02975829019877</v>
+        <v>46.02975829019874</v>
       </c>
       <c r="G13" t="n">
-        <v>46.02975829019877</v>
+        <v>46.02975829019874</v>
       </c>
       <c r="H13" t="n">
-        <v>46.02975829019877</v>
+        <v>46.02975829019874</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>54.53520723478805</v>
+        <v>45.80874399435255</v>
       </c>
       <c r="K13" t="n">
-        <v>160.1680627672454</v>
+        <v>151.4415995268099</v>
       </c>
       <c r="L13" t="n">
-        <v>315.1618402150398</v>
+        <v>306.4353769746043</v>
       </c>
       <c r="M13" t="n">
-        <v>482.0295308473433</v>
+        <v>473.3030676069079</v>
       </c>
       <c r="N13" t="n">
-        <v>653.400033942861</v>
+        <v>644.6735707024256</v>
       </c>
       <c r="O13" t="n">
         <v>796.6924997774063</v>
@@ -5221,28 +5221,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R13" t="n">
-        <v>943.9686545849427</v>
+        <v>915.2449883610429</v>
       </c>
       <c r="S13" t="n">
-        <v>847.9613291931244</v>
+        <v>819.2376629692246</v>
       </c>
       <c r="T13" t="n">
-        <v>747.9853256282663</v>
+        <v>719.2616594043667</v>
       </c>
       <c r="U13" t="n">
-        <v>589.0462514288533</v>
+        <v>560.3225852049538</v>
       </c>
       <c r="V13" t="n">
-        <v>464.6338297876858</v>
+        <v>435.9101635637863</v>
       </c>
       <c r="W13" t="n">
-        <v>305.4887263154445</v>
+        <v>276.765060091545</v>
       </c>
       <c r="X13" t="n">
-        <v>207.7712419821464</v>
+        <v>179.047575758247</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.2507294033356</v>
+        <v>88.52706317943623</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>636.447117822305</v>
+        <v>318.4694048079182</v>
       </c>
       <c r="C14" t="n">
-        <v>408.6726828317343</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="D14" t="n">
-        <v>191.5950661748247</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="E14" t="n">
-        <v>191.5950661748247</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="F14" t="n">
-        <v>191.5950661748247</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="G14" t="n">
-        <v>191.5950661748247</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="H14" t="n">
-        <v>90.69496981734747</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451745</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>883.9189885745657</v>
       </c>
       <c r="T14" t="n">
-        <v>879.895894466405</v>
+        <v>883.9189885745657</v>
       </c>
       <c r="U14" t="n">
-        <v>879.895894466405</v>
+        <v>883.9189885745657</v>
       </c>
       <c r="V14" t="n">
-        <v>879.895894466405</v>
+        <v>794.1958577632571</v>
       </c>
       <c r="W14" t="n">
-        <v>879.895894466405</v>
+        <v>794.1958577632571</v>
       </c>
       <c r="X14" t="n">
-        <v>879.895894466405</v>
+        <v>561.9181814520182</v>
       </c>
       <c r="Y14" t="n">
-        <v>879.895894466405</v>
+        <v>561.9181814520182</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174.1600413077333</v>
+        <v>197.0574028242184</v>
       </c>
       <c r="C15" t="n">
-        <v>140.8950939764472</v>
+        <v>163.7924554929323</v>
       </c>
       <c r="D15" t="n">
-        <v>133.1487662650369</v>
+        <v>156.046127781522</v>
       </c>
       <c r="E15" t="n">
-        <v>115.0993932094223</v>
+        <v>137.9967547259075</v>
       </c>
       <c r="F15" t="n">
-        <v>109.7529171861482</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>109.7529171861482</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5361,16 +5361,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5382,25 +5382,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>830.6583634640317</v>
       </c>
       <c r="T15" t="n">
-        <v>628.4717688227978</v>
+        <v>769.6598507726387</v>
       </c>
       <c r="U15" t="n">
-        <v>541.4362325090278</v>
+        <v>682.6243144588688</v>
       </c>
       <c r="V15" t="n">
-        <v>447.472206227126</v>
+        <v>588.660288176967</v>
       </c>
       <c r="W15" t="n">
-        <v>334.4229314487653</v>
+        <v>357.3202929652502</v>
       </c>
       <c r="X15" t="n">
-        <v>267.7595131930734</v>
+        <v>290.6568747095584</v>
       </c>
       <c r="Y15" t="n">
-        <v>201.1872963779604</v>
+        <v>224.0846578944455</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.3948033800104</v>
+        <v>135.3948033800101</v>
       </c>
       <c r="C16" t="n">
-        <v>107.6467024019444</v>
+        <v>107.6467024019441</v>
       </c>
       <c r="D16" t="n">
-        <v>98.71814493944953</v>
+        <v>98.71814493944942</v>
       </c>
       <c r="E16" t="n">
-        <v>91.99313330689745</v>
+        <v>91.99313330689733</v>
       </c>
       <c r="F16" t="n">
-        <v>86.29126775882798</v>
+        <v>86.29126775882787</v>
       </c>
       <c r="G16" t="n">
-        <v>57.79149177083173</v>
+        <v>57.79149177083167</v>
       </c>
       <c r="H16" t="n">
-        <v>35.11374290507714</v>
+        <v>35.11374290507711</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>65.23399391374576</v>
+        <v>65.23399391374579</v>
       </c>
       <c r="K16" t="n">
-        <v>181.5656361251608</v>
+        <v>181.5656361251609</v>
       </c>
       <c r="L16" t="n">
-        <v>252.9414435798158</v>
+        <v>347.258200251913</v>
       </c>
       <c r="M16" t="n">
-        <v>430.507920891077</v>
+        <v>524.8246775631743</v>
       </c>
       <c r="N16" t="n">
-        <v>612.5772106655525</v>
+        <v>706.8939673376497</v>
       </c>
       <c r="O16" t="n">
         <v>775.2949264194908</v>
@@ -5461,25 +5461,25 @@
         <v>926.1610037461646</v>
       </c>
       <c r="S16" t="n">
-        <v>841.0696937394679</v>
+        <v>841.069693739468</v>
       </c>
       <c r="T16" t="n">
-        <v>752.0097055597315</v>
+        <v>752.0097055597316</v>
       </c>
       <c r="U16" t="n">
         <v>603.9866467454401</v>
       </c>
       <c r="V16" t="n">
-        <v>490.4902404893944</v>
+        <v>490.4902404893942</v>
       </c>
       <c r="W16" t="n">
         <v>342.2611524022745</v>
       </c>
       <c r="X16" t="n">
-        <v>255.4596834540984</v>
+        <v>255.4596834540982</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.8551862604091</v>
+        <v>175.8551862604089</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>694.2127708364594</v>
+        <v>461.6249391386964</v>
       </c>
       <c r="C17" t="n">
-        <v>694.2127708364594</v>
+        <v>461.6249391386964</v>
       </c>
       <c r="D17" t="n">
-        <v>694.2127708364594</v>
+        <v>461.6249391386964</v>
       </c>
       <c r="E17" t="n">
-        <v>694.2127708364594</v>
+        <v>448.082259997241</v>
       </c>
       <c r="F17" t="n">
-        <v>450.7639941923593</v>
+        <v>448.082259997241</v>
       </c>
       <c r="G17" t="n">
-        <v>207.3152175482593</v>
+        <v>204.6334833531409</v>
       </c>
       <c r="H17" t="n">
-        <v>21.96287730533106</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5558,7 +5558,7 @@
         <v>694.2127708364594</v>
       </c>
       <c r="Y17" t="n">
-        <v>694.2127708364594</v>
+        <v>461.6249391386964</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.77049849620458</v>
+        <v>285.7197562615901</v>
       </c>
       <c r="C18" t="n">
-        <v>57.86896949312627</v>
+        <v>111.266726980463</v>
       </c>
       <c r="D18" t="n">
-        <v>57.86896949312627</v>
+        <v>111.266726980463</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5604,40 +5604,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>847.0217817922395</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>802.3866874290543</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>574.1630691654434</v>
       </c>
       <c r="V18" t="n">
-        <v>282.6289901027661</v>
+        <v>496.5624612117494</v>
       </c>
       <c r="W18" t="n">
-        <v>185.9431336526132</v>
+        <v>399.8766047615965</v>
       </c>
       <c r="X18" t="n">
-        <v>135.6431337251291</v>
+        <v>349.5766048341123</v>
       </c>
       <c r="Y18" t="n">
-        <v>85.43433523822389</v>
+        <v>299.3678063472071</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.66582576007092</v>
+        <v>49.11651395740618</v>
       </c>
       <c r="C19" t="n">
+        <v>37.73183130754798</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.73183130754798</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37.73183130754798</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.73183130754798</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25.59547364775955</v>
+      </c>
+      <c r="H19" t="n">
         <v>19.28114311021272</v>
       </c>
-      <c r="D19" t="n">
-        <v>26.56805024469802</v>
-      </c>
-      <c r="E19" t="n">
-        <v>36.01465264711008</v>
-      </c>
-      <c r="F19" t="n">
-        <v>46.46404052692368</v>
-      </c>
-      <c r="G19" t="n">
-        <v>34.32768286713525</v>
-      </c>
-      <c r="H19" t="n">
-        <v>28.01335232958842</v>
-      </c>
       <c r="I19" t="n">
-        <v>28.01335232958842</v>
+        <v>19.80139835474256</v>
       </c>
       <c r="J19" t="n">
-        <v>69.90166681105097</v>
+        <v>19.80139835474256</v>
       </c>
       <c r="K19" t="n">
-        <v>202.2710953259425</v>
+        <v>19.80139835474256</v>
       </c>
       <c r="L19" t="n">
-        <v>229.5852203336555</v>
+        <v>47.11552336245553</v>
       </c>
       <c r="M19" t="n">
-        <v>268.7732585258776</v>
+        <v>132.8077213006973</v>
       </c>
       <c r="N19" t="n">
-        <v>312.4641091813139</v>
+        <v>330.9147973786492</v>
       </c>
       <c r="O19" t="n">
-        <v>491.2196112387287</v>
+        <v>509.6702994360639</v>
       </c>
       <c r="P19" t="n">
-        <v>642.9416103334888</v>
+        <v>661.3922985308241</v>
       </c>
       <c r="Q19" t="n">
-        <v>712.0574129368269</v>
+        <v>730.5081011341622</v>
       </c>
       <c r="R19" t="n">
-        <v>690.524679500563</v>
+        <v>708.9753676978983</v>
       </c>
       <c r="S19" t="n">
-        <v>621.7967878220741</v>
+        <v>640.2474760194093</v>
       </c>
       <c r="T19" t="n">
-        <v>549.1002179705455</v>
+        <v>567.5509061678807</v>
       </c>
       <c r="U19" t="n">
-        <v>417.440577484462</v>
+        <v>435.8912656817972</v>
       </c>
       <c r="V19" t="n">
-        <v>320.3075895566238</v>
+        <v>338.7582777539591</v>
       </c>
       <c r="W19" t="n">
-        <v>188.4419197977119</v>
+        <v>206.8926079950472</v>
       </c>
       <c r="X19" t="n">
-        <v>118.0038691777433</v>
+        <v>136.4545573750786</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.76279031226191</v>
+        <v>73.21347850959718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>867.7241579019814</v>
+        <v>434.6231413107766</v>
       </c>
       <c r="C20" t="n">
-        <v>867.7241579019814</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>667.0099595732796</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>438.7732072530841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>195.324430608984</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>195.324430608984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>896.2593127946128</v>
       </c>
       <c r="U20" t="n">
-        <v>867.7241579019814</v>
+        <v>896.2593127946128</v>
       </c>
       <c r="V20" t="n">
-        <v>867.7241579019814</v>
+        <v>896.2593127946128</v>
       </c>
       <c r="W20" t="n">
-        <v>867.7241579019814</v>
+        <v>896.2593127946128</v>
       </c>
       <c r="X20" t="n">
-        <v>867.7241579019814</v>
+        <v>896.2593127946128</v>
       </c>
       <c r="Y20" t="n">
-        <v>867.7241579019814</v>
+        <v>663.6714810968498</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.62275949348354</v>
+        <v>243.1105788583549</v>
       </c>
       <c r="C21" t="n">
-        <v>21.72123049040523</v>
+        <v>68.65754957722791</v>
       </c>
       <c r="D21" t="n">
-        <v>21.72123049040523</v>
+        <v>68.65754957722791</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>66.97159484982112</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>66.97159484982112</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>948.1913112393538</v>
       </c>
       <c r="T21" t="n">
-        <v>746.0047165981199</v>
+        <v>903.5562168761686</v>
       </c>
       <c r="U21" t="n">
-        <v>675.3325986125577</v>
+        <v>675.3325986125576</v>
       </c>
       <c r="V21" t="n">
-        <v>440.180490380815</v>
+        <v>597.7319906588637</v>
       </c>
       <c r="W21" t="n">
-        <v>343.4946339306621</v>
+        <v>354.2832140147636</v>
       </c>
       <c r="X21" t="n">
-        <v>135.6431337251292</v>
+        <v>303.9832140872795</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.28659623550286</v>
+        <v>253.7744156003743</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.66582576007092</v>
+        <v>282.6655683338802</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>271.2808856840221</v>
       </c>
       <c r="D22" t="n">
-        <v>26.56805024469802</v>
+        <v>278.5677928185074</v>
       </c>
       <c r="E22" t="n">
-        <v>36.01465264711008</v>
+        <v>288.0143952209194</v>
       </c>
       <c r="F22" t="n">
-        <v>46.46404052692368</v>
+        <v>288.0143952209194</v>
       </c>
       <c r="G22" t="n">
-        <v>34.32768286713525</v>
+        <v>275.878037561131</v>
       </c>
       <c r="H22" t="n">
-        <v>28.01335232958842</v>
+        <v>269.5637070235842</v>
       </c>
       <c r="I22" t="n">
-        <v>28.01335232958842</v>
+        <v>270.083962268114</v>
       </c>
       <c r="J22" t="n">
-        <v>90.00398943659791</v>
+        <v>332.0745993751235</v>
       </c>
       <c r="K22" t="n">
-        <v>202.2710953259424</v>
+        <v>332.0745993751235</v>
       </c>
       <c r="L22" t="n">
-        <v>384.0014457561709</v>
+        <v>513.804949805352</v>
       </c>
       <c r="M22" t="n">
-        <v>423.1894839483931</v>
+        <v>675.1892265222024</v>
       </c>
       <c r="N22" t="n">
-        <v>466.8803346038294</v>
+        <v>718.8800771776387</v>
       </c>
       <c r="O22" t="n">
-        <v>491.2196112387287</v>
+        <v>743.219353812538</v>
       </c>
       <c r="P22" t="n">
-        <v>642.9416103334888</v>
+        <v>894.9413529072981</v>
       </c>
       <c r="Q22" t="n">
-        <v>712.0574129368269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>690.524679500563</v>
+        <v>942.5244220743723</v>
       </c>
       <c r="S22" t="n">
-        <v>621.7967878220741</v>
+        <v>873.7965303958833</v>
       </c>
       <c r="T22" t="n">
-        <v>549.1002179705455</v>
+        <v>801.0999605443548</v>
       </c>
       <c r="U22" t="n">
-        <v>417.440577484462</v>
+        <v>669.4403200582713</v>
       </c>
       <c r="V22" t="n">
-        <v>320.3075895566238</v>
+        <v>572.3073321304331</v>
       </c>
       <c r="W22" t="n">
-        <v>188.4419197977119</v>
+        <v>440.4416623715212</v>
       </c>
       <c r="X22" t="n">
-        <v>118.0038691777433</v>
+        <v>370.0036117515526</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.76279031226191</v>
+        <v>306.7625328860712</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>874.4578269659377</v>
+        <v>1143.898339257912</v>
       </c>
       <c r="C23" t="n">
-        <v>663.0468103035747</v>
+        <v>932.4873225955488</v>
       </c>
       <c r="D23" t="n">
-        <v>462.332611974873</v>
+        <v>731.773124266847</v>
       </c>
       <c r="E23" t="n">
-        <v>234.0958596546774</v>
+        <v>731.773124266847</v>
       </c>
       <c r="F23" t="n">
-        <v>31.0401651286561</v>
+        <v>478.3387197552882</v>
       </c>
       <c r="G23" t="n">
-        <v>31.0401651286561</v>
+        <v>216.3925053715843</v>
       </c>
       <c r="H23" t="n">
         <v>31.0401651286561</v>
@@ -5993,46 +5993,46 @@
         <v>276.6416000010276</v>
       </c>
       <c r="L23" t="n">
-        <v>611.1336770082016</v>
+        <v>456.7174515856861</v>
       </c>
       <c r="M23" t="n">
-        <v>828.1093042711058</v>
+        <v>792.420479285058</v>
       </c>
       <c r="N23" t="n">
-        <v>1033.963826478345</v>
+        <v>998.2750014922974</v>
       </c>
       <c r="O23" t="n">
-        <v>1183.158776620993</v>
+        <v>1301.886177057461</v>
       </c>
       <c r="P23" t="n">
-        <v>1407.482823232689</v>
+        <v>1545.962457772028</v>
       </c>
       <c r="Q23" t="n">
-        <v>1552.008256432805</v>
+        <v>1545.962457772028</v>
       </c>
       <c r="R23" t="n">
         <v>1552.008256432805</v>
       </c>
       <c r="S23" t="n">
-        <v>1552.008256432805</v>
+        <v>1498.428373290404</v>
       </c>
       <c r="T23" t="n">
-        <v>1552.008256432805</v>
+        <v>1430.630530574381</v>
       </c>
       <c r="U23" t="n">
-        <v>1552.008256432805</v>
+        <v>1334.297532965726</v>
       </c>
       <c r="V23" t="n">
-        <v>1552.008256432805</v>
+        <v>1160.786145900204</v>
       </c>
       <c r="W23" t="n">
-        <v>1552.008256432805</v>
+        <v>1160.786145900204</v>
       </c>
       <c r="X23" t="n">
-        <v>1336.093998449774</v>
+        <v>1160.786145900204</v>
       </c>
       <c r="Y23" t="n">
-        <v>1103.506166752011</v>
+        <v>1160.786145900204</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>404.0005696932105</v>
+        <v>246.4490694151618</v>
       </c>
       <c r="C24" t="n">
-        <v>387.0990406901323</v>
+        <v>229.5475404120835</v>
       </c>
       <c r="D24" t="n">
-        <v>238.164631028881</v>
+        <v>229.5475404120835</v>
       </c>
       <c r="E24" t="n">
-        <v>236.4786763014742</v>
+        <v>177.5747231017711</v>
       </c>
       <c r="F24" t="n">
-        <v>89.94411832835917</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G24" t="n">
         <v>31.0401651286561</v>
@@ -6099,13 +6099,13 @@
         <v>1232.786288073174</v>
       </c>
       <c r="U24" t="n">
-        <v>1004.562669809563</v>
+        <v>1162.114170087612</v>
       </c>
       <c r="V24" t="n">
-        <v>769.4105615778208</v>
+        <v>926.9620618558695</v>
       </c>
       <c r="W24" t="n">
-        <v>515.1732048496192</v>
+        <v>672.7247051276679</v>
       </c>
       <c r="X24" t="n">
         <v>464.8732049221351</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.79496118468558</v>
+        <v>42.4248477785143</v>
       </c>
       <c r="C25" t="n">
-        <v>42.41027853482738</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="D25" t="n">
-        <v>42.41027853482738</v>
+        <v>38.3270722631414</v>
       </c>
       <c r="E25" t="n">
-        <v>42.41027853482738</v>
+        <v>47.77367466555346</v>
       </c>
       <c r="F25" t="n">
-        <v>49.49085332599136</v>
+        <v>58.22306254536706</v>
       </c>
       <c r="G25" t="n">
-        <v>37.35449566620293</v>
+        <v>46.08670488557863</v>
       </c>
       <c r="H25" t="n">
-        <v>31.0401651286561</v>
+        <v>39.7723743480318</v>
       </c>
       <c r="I25" t="n">
-        <v>31.0401651286561</v>
+        <v>40.29262959256162</v>
       </c>
       <c r="J25" t="n">
-        <v>93.03080223566559</v>
+        <v>102.2832666995711</v>
       </c>
       <c r="K25" t="n">
-        <v>225.4002307505571</v>
+        <v>234.6526952144626</v>
       </c>
       <c r="L25" t="n">
-        <v>407.1305811807856</v>
+        <v>393.0662414468589</v>
       </c>
       <c r="M25" t="n">
-        <v>446.3186193730078</v>
+        <v>586.6705050615966</v>
       </c>
       <c r="N25" t="n">
-        <v>490.0094700284441</v>
+        <v>630.3613557170329</v>
       </c>
       <c r="O25" t="n">
-        <v>514.3487466633434</v>
+        <v>654.7006323519322</v>
       </c>
       <c r="P25" t="n">
-        <v>666.0707457581035</v>
+        <v>654.7006323519322</v>
       </c>
       <c r="Q25" t="n">
-        <v>735.1865483614416</v>
+        <v>723.8164349552703</v>
       </c>
       <c r="R25" t="n">
-        <v>713.6538149251777</v>
+        <v>702.2837015190064</v>
       </c>
       <c r="S25" t="n">
-        <v>644.9259232466887</v>
+        <v>633.5558098405174</v>
       </c>
       <c r="T25" t="n">
-        <v>572.2293533951602</v>
+        <v>560.8592399889889</v>
       </c>
       <c r="U25" t="n">
-        <v>440.5697129090767</v>
+        <v>429.1995995029054</v>
       </c>
       <c r="V25" t="n">
-        <v>343.4367249812385</v>
+        <v>332.0666115750672</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5710552223266</v>
+        <v>200.2009418161553</v>
       </c>
       <c r="X25" t="n">
-        <v>141.133004602358</v>
+        <v>129.7628911961867</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.89192573687657</v>
+        <v>66.52181233070529</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>826.0782462615009</v>
+        <v>1041.287978051965</v>
       </c>
       <c r="C26" t="n">
-        <v>594.3477042329073</v>
+        <v>1041.287978051965</v>
       </c>
       <c r="D26" t="n">
-        <v>594.3477042329073</v>
+        <v>1041.287978051965</v>
       </c>
       <c r="E26" t="n">
-        <v>594.3477042329073</v>
+        <v>792.7317003655392</v>
       </c>
       <c r="F26" t="n">
-        <v>594.3477042329073</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="G26" t="n">
-        <v>312.0819644829726</v>
+        <v>236.712030737815</v>
       </c>
       <c r="H26" t="n">
-        <v>106.4100988738137</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I26" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J26" t="n">
-        <v>79.1188018104894</v>
+        <v>153.7114272786625</v>
       </c>
       <c r="K26" t="n">
-        <v>182.1338077214118</v>
+        <v>391.2274918006576</v>
       </c>
       <c r="L26" t="n">
-        <v>496.7107179171431</v>
+        <v>571.3033433853162</v>
       </c>
       <c r="M26" t="n">
-        <v>713.6863451800473</v>
+        <v>848.1874037911202</v>
       </c>
       <c r="N26" t="n">
-        <v>919.5408673872867</v>
+        <v>1054.04192599836</v>
       </c>
       <c r="O26" t="n">
         <v>1203.236876141008</v>
       </c>
       <c r="P26" t="n">
-        <v>1427.397990044131</v>
+        <v>1427.397990044132</v>
       </c>
       <c r="Q26" t="n">
         <v>1552.008256432805</v>
@@ -6251,25 +6251,25 @@
         <v>1537.85728392932</v>
       </c>
       <c r="S26" t="n">
-        <v>1463.957875420689</v>
+        <v>1463.957875420688</v>
       </c>
       <c r="T26" t="n">
-        <v>1375.840507338435</v>
+        <v>1375.840507338434</v>
       </c>
       <c r="U26" t="n">
-        <v>1259.187984363549</v>
+        <v>1259.187984363548</v>
       </c>
       <c r="V26" t="n">
-        <v>1259.187984363549</v>
+        <v>1256.824658410262</v>
       </c>
       <c r="W26" t="n">
-        <v>1062.312029610763</v>
+        <v>1041.287978051965</v>
       </c>
       <c r="X26" t="n">
-        <v>826.0782462615009</v>
+        <v>1041.287978051965</v>
       </c>
       <c r="Y26" t="n">
-        <v>826.0782462615009</v>
+        <v>1041.287978051965</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>597.1864180519241</v>
+        <v>387.9886503843214</v>
       </c>
       <c r="C27" t="n">
-        <v>422.7333887707971</v>
+        <v>350.7675960150123</v>
       </c>
       <c r="D27" t="n">
-        <v>411.0309540213639</v>
+        <v>201.8331863537611</v>
       </c>
       <c r="E27" t="n">
-        <v>293.196841852544</v>
+        <v>179.8277062601235</v>
       </c>
       <c r="F27" t="n">
-        <v>283.894258791247</v>
+        <v>170.5251231988265</v>
       </c>
       <c r="G27" t="n">
-        <v>145.1634333738625</v>
+        <v>31.794297781442</v>
       </c>
       <c r="H27" t="n">
-        <v>31.79429778144181</v>
+        <v>31.794297781442</v>
       </c>
       <c r="I27" t="n">
-        <v>31.79429778144181</v>
+        <v>31.794297781442</v>
       </c>
       <c r="J27" t="n">
-        <v>31.0401651286561</v>
+        <v>31.04016512865628</v>
       </c>
       <c r="K27" t="n">
-        <v>156.3977251864935</v>
+        <v>156.3977251864937</v>
       </c>
       <c r="L27" t="n">
-        <v>386.3608310548427</v>
+        <v>386.3608310548428</v>
       </c>
       <c r="M27" t="n">
-        <v>706.6961505845445</v>
+        <v>706.6961505845446</v>
       </c>
       <c r="N27" t="n">
         <v>1051.216806222163</v>
@@ -6330,25 +6330,25 @@
         <v>1450.838726985691</v>
       </c>
       <c r="S27" t="n">
-        <v>1277.42138243636</v>
+        <v>1414.653357348178</v>
       </c>
       <c r="T27" t="n">
-        <v>1212.466762706944</v>
+        <v>1349.698737618762</v>
       </c>
       <c r="U27" t="n">
         <v>1121.475119355151</v>
       </c>
       <c r="V27" t="n">
-        <v>1023.554986035226</v>
+        <v>886.3230111234082</v>
       </c>
       <c r="W27" t="n">
-        <v>906.5496042188427</v>
+        <v>697.3518365512401</v>
       </c>
       <c r="X27" t="n">
-        <v>835.9300789251279</v>
+        <v>626.7323112575253</v>
       </c>
       <c r="Y27" t="n">
-        <v>628.169780160174</v>
+        <v>556.2039874043894</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.8465746646141</v>
+        <v>687.7409409599724</v>
       </c>
       <c r="C28" t="n">
-        <v>143.1423666485252</v>
+        <v>656.0367329438834</v>
       </c>
       <c r="D28" t="n">
-        <v>130.2577021480075</v>
+        <v>643.1520684433657</v>
       </c>
       <c r="E28" t="n">
-        <v>119.5765834774324</v>
+        <v>632.4709497727906</v>
       </c>
       <c r="F28" t="n">
-        <v>109.9186108913401</v>
+        <v>622.8129771866983</v>
       </c>
       <c r="G28" t="n">
-        <v>77.46272786532086</v>
+        <v>590.357094160679</v>
       </c>
       <c r="H28" t="n">
-        <v>50.82887196154341</v>
+        <v>563.7232382569016</v>
       </c>
       <c r="I28" t="n">
-        <v>31.0401651286561</v>
+        <v>543.9345314240143</v>
       </c>
       <c r="J28" t="n">
-        <v>73.11563542422292</v>
+        <v>586.0100017195811</v>
       </c>
       <c r="K28" t="n">
-        <v>185.5698971276718</v>
+        <v>698.4642634230299</v>
       </c>
       <c r="L28" t="n">
-        <v>347.3850807464569</v>
+        <v>860.2794470418157</v>
       </c>
       <c r="M28" t="n">
-        <v>521.0741775497522</v>
+        <v>1033.968543845111</v>
       </c>
       <c r="N28" t="n">
-        <v>699.2660868162612</v>
+        <v>1212.16045311162</v>
       </c>
       <c r="O28" t="n">
-        <v>858.1064220622334</v>
+        <v>1371.000788357592</v>
       </c>
       <c r="P28" t="n">
-        <v>989.9132543455507</v>
+        <v>1502.80762064091</v>
       </c>
       <c r="Q28" t="n">
-        <v>1039.113890137446</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R28" t="n">
-        <v>997.2616313349508</v>
+        <v>1510.15599763031</v>
       </c>
       <c r="S28" t="n">
-        <v>908.2142142902314</v>
+        <v>1421.108580585591</v>
       </c>
       <c r="T28" t="n">
-        <v>815.1981190724723</v>
+        <v>1328.092485367832</v>
       </c>
       <c r="U28" t="n">
-        <v>663.2189532201583</v>
+        <v>1176.113319515517</v>
       </c>
       <c r="V28" t="n">
-        <v>545.7664399260896</v>
+        <v>1058.660806221448</v>
       </c>
       <c r="W28" t="n">
-        <v>393.5812448009472</v>
+        <v>906.4756110963058</v>
       </c>
       <c r="X28" t="n">
-        <v>302.8236688147479</v>
+        <v>815.7180351101064</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.2630645830357</v>
+        <v>732.1574308783941</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1062.867116019549</v>
+        <v>653.4995232295003</v>
       </c>
       <c r="C29" t="n">
-        <v>1056.649836137739</v>
+        <v>653.4995232295003</v>
       </c>
       <c r="D29" t="n">
-        <v>835.6161124428065</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="E29" t="n">
-        <v>587.0598347563803</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="F29" t="n">
-        <v>313.3059048785907</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="G29" t="n">
-        <v>31.0401651286561</v>
+        <v>236.7120307378151</v>
       </c>
       <c r="H29" t="n">
         <v>31.0401651286561</v>
@@ -6464,22 +6464,22 @@
         <v>153.7114272786625</v>
       </c>
       <c r="K29" t="n">
-        <v>256.7264331895849</v>
+        <v>316.6348663324848</v>
       </c>
       <c r="L29" t="n">
-        <v>436.8022847742435</v>
+        <v>496.7107179171433</v>
       </c>
       <c r="M29" t="n">
-        <v>653.7779120371476</v>
+        <v>848.1874037911202</v>
       </c>
       <c r="N29" t="n">
-        <v>994.1334928554597</v>
+        <v>1054.04192599836</v>
       </c>
       <c r="O29" t="n">
         <v>1203.236876141008</v>
       </c>
       <c r="P29" t="n">
-        <v>1427.397990044131</v>
+        <v>1427.397990044132</v>
       </c>
       <c r="Q29" t="n">
         <v>1552.008256432805</v>
@@ -6497,16 +6497,16 @@
         <v>1552.008256432805</v>
       </c>
       <c r="V29" t="n">
-        <v>1552.008256432805</v>
+        <v>1358.177344001052</v>
       </c>
       <c r="W29" t="n">
-        <v>1552.008256432805</v>
+        <v>1142.640663642756</v>
       </c>
       <c r="X29" t="n">
-        <v>1315.774473083543</v>
+        <v>906.4068802934941</v>
       </c>
       <c r="Y29" t="n">
-        <v>1062.867116019549</v>
+        <v>653.4995232295003</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>561.1239725872202</v>
+        <v>591.6574151195854</v>
       </c>
       <c r="C30" t="n">
-        <v>487.2454382740443</v>
+        <v>554.4363607502763</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3110286127931</v>
+        <v>542.733926000843</v>
       </c>
       <c r="E30" t="n">
-        <v>179.0735736073376</v>
+        <v>383.4964709953875</v>
       </c>
       <c r="F30" t="n">
-        <v>169.7709905460406</v>
+        <v>236.9619130222725</v>
       </c>
       <c r="G30" t="n">
-        <v>31.0401651286561</v>
+        <v>235.463062516706</v>
       </c>
       <c r="H30" t="n">
-        <v>31.0401651286561</v>
+        <v>122.0939269242853</v>
       </c>
       <c r="I30" t="n">
-        <v>31.0401651286561</v>
+        <v>31.79429778144181</v>
       </c>
       <c r="J30" t="n">
         <v>31.0401651286561</v>
@@ -6564,28 +6564,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R30" t="n">
-        <v>1552.008256432805</v>
+        <v>1450.838726985691</v>
       </c>
       <c r="S30" t="n">
-        <v>1378.590911883474</v>
+        <v>1414.653357348177</v>
       </c>
       <c r="T30" t="n">
-        <v>1176.40431724224</v>
+        <v>1212.466762706943</v>
       </c>
       <c r="U30" t="n">
-        <v>1085.412673890447</v>
+        <v>1121.47511935515</v>
       </c>
       <c r="V30" t="n">
-        <v>987.4925405705224</v>
+        <v>1023.554986035226</v>
       </c>
       <c r="W30" t="n">
-        <v>870.4871587541388</v>
+        <v>769.3176293070239</v>
       </c>
       <c r="X30" t="n">
-        <v>799.867633460424</v>
+        <v>693.1691010809714</v>
       </c>
       <c r="Y30" t="n">
-        <v>592.1073346954702</v>
+        <v>622.6407772278354</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.8465746646141</v>
+        <v>687.7409409599727</v>
       </c>
       <c r="C31" t="n">
-        <v>143.1423666485252</v>
+        <v>656.0367329438837</v>
       </c>
       <c r="D31" t="n">
-        <v>130.2577021480075</v>
+        <v>643.152068443366</v>
       </c>
       <c r="E31" t="n">
-        <v>119.5765834774324</v>
+        <v>632.4709497727908</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9186108913401</v>
+        <v>622.8129771866984</v>
       </c>
       <c r="G31" t="n">
-        <v>77.46272786532086</v>
+        <v>590.3570941606795</v>
       </c>
       <c r="H31" t="n">
-        <v>50.82887196154341</v>
+        <v>563.7232382569021</v>
       </c>
       <c r="I31" t="n">
-        <v>31.0401651286561</v>
+        <v>543.9345314240145</v>
       </c>
       <c r="J31" t="n">
-        <v>73.11563542422292</v>
+        <v>586.0100017195812</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5698971276718</v>
+        <v>698.46426342303</v>
       </c>
       <c r="L31" t="n">
-        <v>347.3850807464569</v>
+        <v>860.279447041816</v>
       </c>
       <c r="M31" t="n">
-        <v>521.0741775497522</v>
+        <v>1033.968543845111</v>
       </c>
       <c r="N31" t="n">
-        <v>699.2660868162612</v>
+        <v>1212.16045311162</v>
       </c>
       <c r="O31" t="n">
-        <v>858.1064220622334</v>
+        <v>1371.000788357592</v>
       </c>
       <c r="P31" t="n">
-        <v>989.9132543455507</v>
+        <v>1502.80762064091</v>
       </c>
       <c r="Q31" t="n">
-        <v>1039.113890137446</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R31" t="n">
-        <v>997.2616313349508</v>
+        <v>1510.15599763031</v>
       </c>
       <c r="S31" t="n">
-        <v>908.2142142902314</v>
+        <v>1421.108580585591</v>
       </c>
       <c r="T31" t="n">
-        <v>815.1981190724723</v>
+        <v>1328.092485367831</v>
       </c>
       <c r="U31" t="n">
-        <v>663.2189532201583</v>
+        <v>1176.113319515518</v>
       </c>
       <c r="V31" t="n">
-        <v>545.7664399260896</v>
+        <v>1058.660806221449</v>
       </c>
       <c r="W31" t="n">
-        <v>393.5812448009472</v>
+        <v>906.4756110963062</v>
       </c>
       <c r="X31" t="n">
-        <v>302.8236688147479</v>
+        <v>815.7180351101066</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.2630645830357</v>
+        <v>732.1574308783945</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>965.3480352819672</v>
+        <v>816.1833435958357</v>
       </c>
       <c r="C32" t="n">
-        <v>821.7348613356276</v>
+        <v>672.5701696494962</v>
       </c>
       <c r="D32" t="n">
-        <v>688.8185057229491</v>
+        <v>571.2640081960442</v>
       </c>
       <c r="E32" t="n">
-        <v>528.3795961187769</v>
+        <v>410.8250985918721</v>
       </c>
       <c r="F32" t="n">
-        <v>342.7430343232415</v>
+        <v>225.1885367963366</v>
       </c>
       <c r="G32" t="n">
-        <v>148.594662655561</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H32" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="I32" t="n">
-        <v>43.53392552244429</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J32" t="n">
-        <v>252.5690201298679</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="K32" t="n">
-        <v>355.5840260407903</v>
+        <v>134.0551710395785</v>
       </c>
       <c r="L32" t="n">
-        <v>535.6598776254489</v>
+        <v>314.1310226242371</v>
       </c>
       <c r="M32" t="n">
-        <v>752.635504888353</v>
+        <v>665.5689466538865</v>
       </c>
       <c r="N32" t="n">
-        <v>1015.749665667156</v>
+        <v>871.4234688611259</v>
       </c>
       <c r="O32" t="n">
-        <v>1164.944615809804</v>
+        <v>1241.483310072264</v>
       </c>
       <c r="P32" t="n">
-        <v>1254.604671101855</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="Q32" t="n">
-        <v>1465.578769947946</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R32" t="n">
-        <v>1538.073234254698</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S32" t="n">
         <v>1552.008256432805</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>351.9567990072717</v>
+        <v>354.4276040710344</v>
       </c>
       <c r="C33" t="n">
-        <v>351.9567990072717</v>
+        <v>179.9745747899074</v>
       </c>
       <c r="D33" t="n">
-        <v>351.9567990072717</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E33" t="n">
-        <v>192.7193440018162</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F33" t="n">
-        <v>46.18478602870115</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J33" t="n">
         <v>31.0401651286561</v>
@@ -6801,28 +6801,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R33" t="n">
-        <v>1450.838726985691</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S33" t="n">
-        <v>1277.42138243636</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T33" t="n">
-        <v>1277.42138243636</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U33" t="n">
-        <v>1049.197764172749</v>
+        <v>1323.784638169194</v>
       </c>
       <c r="V33" t="n">
-        <v>814.0456559410061</v>
+        <v>1192.492096789791</v>
       </c>
       <c r="W33" t="n">
-        <v>559.8082992128045</v>
+        <v>938.254740061589</v>
       </c>
       <c r="X33" t="n">
-        <v>351.9567990072717</v>
+        <v>730.4032398560562</v>
       </c>
       <c r="Y33" t="n">
-        <v>351.9567990072717</v>
+        <v>522.6429410911023</v>
       </c>
     </row>
     <row r="34">
@@ -6877,7 +6877,7 @@
         <v>165.5724556189269</v>
       </c>
       <c r="Q34" t="n">
-        <v>165.5724556189269</v>
+        <v>196.7739191553356</v>
       </c>
       <c r="R34" t="n">
         <v>196.7739191553356</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>654.6902431735787</v>
+        <v>333.9457870231655</v>
       </c>
       <c r="C35" t="n">
-        <v>654.6902431735787</v>
+        <v>333.9457870231655</v>
       </c>
       <c r="D35" t="n">
-        <v>559.5049861776008</v>
+        <v>333.9457870231655</v>
       </c>
       <c r="E35" t="n">
-        <v>399.0660765734287</v>
+        <v>322.472202432653</v>
       </c>
       <c r="F35" t="n">
-        <v>213.4295147778932</v>
+        <v>136.8356406371176</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>136.8356406371176</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>935.5220006180048</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>935.5220006180048</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>808.1026883419627</v>
       </c>
       <c r="X35" t="n">
-        <v>815.9407402436284</v>
+        <v>659.9862730749549</v>
       </c>
       <c r="Y35" t="n">
-        <v>815.9407402436284</v>
+        <v>495.1962840932152</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>222.9499078454769</v>
+        <v>303.578078261085</v>
       </c>
       <c r="C36" t="n">
-        <v>222.9499078454769</v>
+        <v>303.578078261085</v>
       </c>
       <c r="D36" t="n">
-        <v>222.9499078454769</v>
+        <v>303.578078261085</v>
       </c>
       <c r="E36" t="n">
-        <v>222.9499078454769</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>451.4438980129092</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>222.9499078454769</v>
+        <v>471.793415281153</v>
       </c>
       <c r="X36" t="n">
-        <v>222.9499078454769</v>
+        <v>471.793415281153</v>
       </c>
       <c r="Y36" t="n">
-        <v>222.9499078454769</v>
+        <v>471.793415281153</v>
       </c>
     </row>
     <row r="37">
@@ -7072,28 +7072,28 @@
         <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>50.48260664662145</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>692.4213417902793</v>
+        <v>548.9766988240801</v>
       </c>
       <c r="C38" t="n">
-        <v>692.4213417902793</v>
+        <v>548.9766988240801</v>
       </c>
       <c r="D38" t="n">
-        <v>559.5049861776008</v>
+        <v>416.0603432114017</v>
       </c>
       <c r="E38" t="n">
-        <v>399.0660765734287</v>
+        <v>255.6214336072296</v>
       </c>
       <c r="F38" t="n">
         <v>213.4295147778932</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>858.3436111611377</v>
       </c>
       <c r="W38" t="n">
-        <v>836.6378432345941</v>
+        <v>858.3436111611377</v>
       </c>
       <c r="X38" t="n">
-        <v>836.6378432345941</v>
+        <v>710.2271958941299</v>
       </c>
       <c r="Y38" t="n">
-        <v>836.6378432345941</v>
+        <v>710.2271958941299</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>158.0119685275972</v>
+        <v>321.0759210496242</v>
       </c>
       <c r="C39" t="n">
-        <v>158.0119685275972</v>
+        <v>321.0759210496242</v>
       </c>
       <c r="D39" t="n">
-        <v>158.0119685275972</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>844.4643536089727</v>
+        <v>961.1828802410973</v>
       </c>
       <c r="V39" t="n">
-        <v>609.3122453772301</v>
+        <v>726.0307720093547</v>
       </c>
       <c r="W39" t="n">
-        <v>365.86346873313</v>
+        <v>697.1427582752251</v>
       </c>
       <c r="X39" t="n">
-        <v>158.0119685275972</v>
+        <v>489.2912580696923</v>
       </c>
       <c r="Y39" t="n">
-        <v>158.0119685275972</v>
+        <v>489.2912580696923</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>185.0148971368922</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>184.0848481744266</v>
+        <v>963.1271065481707</v>
       </c>
       <c r="T40" t="n">
-        <v>179.1861210389214</v>
+        <v>958.2283794126655</v>
       </c>
       <c r="U40" t="n">
-        <v>115.3243232688613</v>
+        <v>894.3665816426054</v>
       </c>
       <c r="V40" t="n">
-        <v>85.98917805704652</v>
+        <v>865.0314364307906</v>
       </c>
       <c r="W40" t="n">
-        <v>21.92135101415797</v>
+        <v>800.963609387902</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>798.3234014839568</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>798.3234014839568</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>715.6169182210276</v>
+      </c>
+      <c r="C41" t="n">
+        <v>715.6169182210276</v>
+      </c>
+      <c r="D41" t="n">
+        <v>715.6169182210276</v>
+      </c>
+      <c r="E41" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C41" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D41" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E41" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>262.7299197543128</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>928.071009890917</v>
+        <v>854.1046143121476</v>
       </c>
       <c r="U41" t="n">
-        <v>928.071009890917</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="V41" t="n">
-        <v>712.4049243429299</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>715.6169182210276</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.75017213022478</v>
+        <v>230.149562615232</v>
       </c>
       <c r="C43" t="n">
-        <v>67.75017213022478</v>
+        <v>176.6101814829085</v>
       </c>
       <c r="D43" t="n">
-        <v>67.75017213022478</v>
+        <v>141.8903438661563</v>
       </c>
       <c r="E43" t="n">
-        <v>67.75017213022478</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="F43" t="n">
-        <v>67.75017213022478</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="G43" t="n">
-        <v>67.75017213022478</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>60.90502305933459</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7603,16 +7603,16 @@
         <v>456.6014452857347</v>
       </c>
       <c r="V43" t="n">
-        <v>317.3137588754313</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="W43" t="n">
-        <v>317.3137588754313</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7210097729974</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.001835164881</v>
+        <v>296.4012256498882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7691,7 +7691,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>273.6558375781956</v>
+        <v>264.7674883962367</v>
       </c>
       <c r="C45" t="n">
-        <v>203.6835947075305</v>
+        <v>194.7952455255715</v>
       </c>
       <c r="D45" t="n">
-        <v>159.2299714567411</v>
+        <v>150.3416222747821</v>
       </c>
       <c r="E45" t="n">
-        <v>104.4733028617474</v>
+        <v>95.5849536797885</v>
       </c>
       <c r="F45" t="n">
-        <v>62.4195312990942</v>
+        <v>53.53118211713534</v>
       </c>
       <c r="G45" t="n">
-        <v>28.16949229217155</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,22 +7728,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>915.2458247390259</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>817.5400165082538</v>
+        <v>939.3229891475754</v>
       </c>
       <c r="U45" t="n">
-        <v>693.7971846551046</v>
+        <v>815.5801572944264</v>
       </c>
       <c r="V45" t="n">
-        <v>693.7971846551046</v>
+        <v>684.9088354731456</v>
       </c>
       <c r="W45" t="n">
-        <v>544.0406143373648</v>
+        <v>535.1522651554059</v>
       </c>
       <c r="X45" t="n">
-        <v>440.6699005422939</v>
+        <v>431.7815513603349</v>
       </c>
       <c r="Y45" t="n">
-        <v>337.3903881878018</v>
+        <v>328.5020390058428</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>238.8223154644137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>238.8223154644137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>238.8223154644137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>238.8223154644137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>196.4131543769652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>131.2060828495899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>71.82103844445624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>29.25717355560032</v>
+        <v>29.25717355560035</v>
       </c>
       <c r="K46" t="n">
-        <v>109.6119954088699</v>
+        <v>109.61199540887</v>
       </c>
       <c r="L46" t="n">
         <v>239.3277391774766</v>
       </c>
       <c r="M46" t="n">
-        <v>380.9173961305924</v>
+        <v>380.9173961305925</v>
       </c>
       <c r="N46" t="n">
-        <v>527.0098655469224</v>
+        <v>527.0098655469225</v>
       </c>
       <c r="O46" t="n">
-        <v>653.7507609427153</v>
+        <v>653.7507609427155</v>
       </c>
       <c r="P46" t="n">
-        <v>753.4581533758535</v>
+        <v>753.4581533758537</v>
       </c>
       <c r="Q46" t="n">
-        <v>770.5593493175697</v>
+        <v>770.55934931757</v>
       </c>
       <c r="R46" t="n">
-        <v>770.5593493175697</v>
+        <v>695.9559020137192</v>
       </c>
       <c r="S46" t="n">
-        <v>770.5593493175697</v>
+        <v>628.7684383110055</v>
       </c>
       <c r="T46" t="n">
-        <v>644.7920655984543</v>
+        <v>628.7684383110055</v>
       </c>
       <c r="U46" t="n">
-        <v>460.0617112447839</v>
+        <v>444.0380839573352</v>
       </c>
       <c r="V46" t="n">
-        <v>309.8580094493589</v>
+        <v>444.0380839573352</v>
       </c>
       <c r="W46" t="n">
-        <v>238.8223154644137</v>
+        <v>259.1017003308364</v>
       </c>
       <c r="X46" t="n">
-        <v>238.8223154644137</v>
+        <v>135.5929358432809</v>
       </c>
       <c r="Y46" t="n">
-        <v>238.8223154644137</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9252,16 +9252,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,10 +9492,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11385,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.7644957644085</v>
+        <v>12.7502068867494</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>236.3035458719354</v>
       </c>
       <c r="D11" t="n">
-        <v>8.717567072445235</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94673529553063</v>
+        <v>252.9610241731897</v>
       </c>
       <c r="F11" t="n">
-        <v>36.89241096498029</v>
+        <v>277.9066998426393</v>
       </c>
       <c r="G11" t="n">
         <v>286.333391616063</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5054562166951</v>
+        <v>210.505456216695</v>
       </c>
       <c r="I11" t="n">
-        <v>81.50654367133382</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.89977204207759</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.05072368717325</v>
+        <v>80.05072368717322</v>
       </c>
       <c r="T11" t="n">
-        <v>94.12650366505926</v>
+        <v>94.12650366505923</v>
       </c>
       <c r="U11" t="n">
         <v>122.3763070087644</v>
       </c>
       <c r="V11" t="n">
-        <v>198.7829125710628</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>220.2716228183409</v>
       </c>
       <c r="X11" t="n">
-        <v>240.7617547793969</v>
+        <v>73.35071538672173</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.2685927569815</v>
+        <v>257.2685927569814</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>25.24200456637919</v>
       </c>
       <c r="C13" t="n">
-        <v>38.27747519955574</v>
+        <v>38.27747519955571</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.64612711914023</v>
       </c>
       <c r="E13" t="n">
-        <v>17.46461674749708</v>
+        <v>17.46461674749705</v>
       </c>
       <c r="F13" t="n">
-        <v>16.45170212385915</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.02163345938666</v>
+        <v>39.02163345938663</v>
       </c>
       <c r="H13" t="n">
-        <v>33.25782660836748</v>
+        <v>33.25782660836745</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.43642956166077</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.943351655479006</v>
+        <v>1.943351655478978</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>214.9068404903404</v>
       </c>
       <c r="E14" t="n">
-        <v>242.1541689419193</v>
+        <v>242.1541689419192</v>
       </c>
       <c r="F14" t="n">
         <v>267.0998446113689</v>
@@ -23510,7 +23510,7 @@
         <v>275.5265363847925</v>
       </c>
       <c r="H14" t="n">
-        <v>99.80750559152216</v>
+        <v>199.6986009854246</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.09291681080717</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.24386845590283</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.31964843378881</v>
       </c>
       <c r="U14" t="n">
         <v>111.569451777494</v>
       </c>
       <c r="V14" t="n">
-        <v>187.9760573397924</v>
+        <v>99.15015783659688</v>
       </c>
       <c r="W14" t="n">
         <v>209.4647675870705</v>
       </c>
       <c r="X14" t="n">
-        <v>229.9548995481265</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>246.4617375257111</v>
+        <v>246.461737525711</v>
       </c>
     </row>
     <row r="15">
@@ -23738,10 +23738,10 @@
         <v>198.7070563454147</v>
       </c>
       <c r="E17" t="n">
-        <v>225.9543847969936</v>
+        <v>212.5471324469527</v>
       </c>
       <c r="F17" t="n">
-        <v>9.885771588784166</v>
+        <v>250.9000604664432</v>
       </c>
       <c r="G17" t="n">
         <v>18.31246336220778</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.84498744197055</v>
+        <v>54.4999042951377</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>213.7551154032008</v>
       </c>
       <c r="Y17" t="n">
-        <v>230.2619533807854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>226.7578563882124</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>209.2969064957393</v>
+        <v>39.12261715484013</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>198.7070563454147</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>225.9543847969936</v>
       </c>
       <c r="F20" t="n">
-        <v>9.885771588784166</v>
+        <v>250.9000604664432</v>
       </c>
       <c r="G20" t="n">
-        <v>259.3267522398668</v>
+        <v>18.31246336220778</v>
       </c>
       <c r="H20" t="n">
-        <v>9.215962216715354</v>
+        <v>183.4988168404989</v>
       </c>
       <c r="I20" t="n">
         <v>54.4999042951377</v>
@@ -24020,10 +24020,10 @@
         <v>53.04408431097713</v>
       </c>
       <c r="T20" t="n">
-        <v>67.11986428886314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>95.36966763256828</v>
       </c>
       <c r="V20" t="n">
         <v>171.7762731948667</v>
@@ -24035,7 +24035,7 @@
         <v>213.7551154032008</v>
       </c>
       <c r="Y20" t="n">
-        <v>230.2619533807854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>210.0389278123431</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,16 +24212,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>225.9543847969936</v>
       </c>
       <c r="F23" t="n">
-        <v>49.87492288568211</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>259.3267522398668</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>183.4988168404989</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>54.4999042951377</v>
@@ -24254,25 +24254,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>53.04408431097713</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>67.11986428886314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>95.36966763256828</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>171.7762731948667</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>193.2649834421448</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>213.7551154032008</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>230.2619533807854</v>
       </c>
     </row>
     <row r="24">
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>246.8741865007807</v>
+        <v>246.8741865007808</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>229.4132366083078</v>
       </c>
       <c r="D26" t="n">
-        <v>218.8233864579831</v>
+        <v>218.8233864579832</v>
       </c>
       <c r="E26" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>74.61623440770612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,16 +24500,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>191.8926033074351</v>
+        <v>189.5529106136813</v>
       </c>
       <c r="W26" t="n">
-        <v>18.47411834945444</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>233.8714455157692</v>
       </c>
       <c r="Y26" t="n">
-        <v>250.3782834933537</v>
+        <v>250.3782834933538</v>
       </c>
     </row>
     <row r="27">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>246.8741865007807</v>
+        <v>246.8741865007808</v>
       </c>
       <c r="C29" t="n">
-        <v>223.2581295253152</v>
+        <v>229.4132366083078</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>85.64685124365013</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>246.070714909562</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.0163905790117</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>203.6151469530673</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61623440770606</v>
+        <v>74.61623440770614</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>14.00946277844983</v>
+        <v>14.00946277844992</v>
       </c>
       <c r="S29" t="n">
-        <v>73.16041442354549</v>
+        <v>73.16041442354557</v>
       </c>
       <c r="T29" t="n">
-        <v>87.2361944014315</v>
+        <v>87.23619440143159</v>
       </c>
       <c r="U29" t="n">
-        <v>115.4859977451366</v>
+        <v>115.4859977451367</v>
       </c>
       <c r="V29" t="n">
-        <v>191.8926033074351</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>213.3813135547132</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>147.6730447692702</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>31.29409221763414</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>116.3789525516358</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25157,19 +25157,19 @@
         <v>142.1770422068762</v>
       </c>
       <c r="D35" t="n">
-        <v>37.35378763053353</v>
+        <v>131.5871920565516</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>147.4756717635231</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>192.2068879510037</v>
       </c>
       <c r="H35" t="n">
-        <v>116.3789525516358</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,19 +25208,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.24980334370514</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>104.6564089060035</v>
       </c>
       <c r="W35" t="n">
-        <v>126.1451191532817</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.1420890919222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.86365566947751</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>142.1770422068762</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>142.0101965365371</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25448,13 +25448,13 @@
         <v>28.24980334370514</v>
       </c>
       <c r="V38" t="n">
-        <v>104.6564089060035</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>126.1451191532817</v>
       </c>
       <c r="X38" t="n">
-        <v>146.6352511143377</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>163.1420890919222</v>
@@ -25634,10 +25634,10 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E41" t="n">
-        <v>26.67324741697507</v>
+        <v>60.34369669024554</v>
       </c>
       <c r="F41" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G41" t="n">
         <v>60.04561485984834</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S41" t="n">
         <v>94.7772358086177</v>
       </c>
       <c r="T41" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W41" t="n">
-        <v>30.83416927471347</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X41" t="n">
         <v>255.4882669008414</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>31.17821424530361</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>83.63841168117955</v>
       </c>
       <c r="W43" t="n">
         <v>172.2801645589633</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.3298367124319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>279.2978631171234</v>
+        <v>38.28357423946426</v>
       </c>
       <c r="C44" t="n">
-        <v>20.82262434699129</v>
+        <v>261.8369132246503</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2470630743258</v>
+        <v>251.2470630743257</v>
       </c>
       <c r="E44" t="n">
-        <v>278.4943915259046</v>
+        <v>278.4943915259045</v>
       </c>
       <c r="F44" t="n">
-        <v>303.4400671953542</v>
+        <v>62.42577831769512</v>
       </c>
       <c r="G44" t="n">
-        <v>99.58137332533573</v>
+        <v>311.8667589687778</v>
       </c>
       <c r="H44" t="n">
         <v>236.0388235694099</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.43313939479246</v>
+        <v>46.43313939479243</v>
       </c>
       <c r="S44" t="n">
         <v>105.5840910398881</v>
@@ -25919,19 +25919,19 @@
         <v>119.6598710177741</v>
       </c>
       <c r="U44" t="n">
-        <v>147.9096743614793</v>
+        <v>147.9096743614792</v>
       </c>
       <c r="V44" t="n">
-        <v>224.3162799237777</v>
+        <v>224.3162799237776</v>
       </c>
       <c r="W44" t="n">
-        <v>245.8049901710558</v>
+        <v>245.8049901710557</v>
       </c>
       <c r="X44" t="n">
-        <v>25.28083325445277</v>
+        <v>25.28083325445272</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.78767123203733</v>
+        <v>70.51657446625421</v>
       </c>
     </row>
     <row r="45">
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>8.799465690139215</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,16 +25992,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>19.92397509358641</v>
+        <v>68.24719255748057</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>72.24192544903416</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>129.3646086030681</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.39600163558008</v>
+        <v>76.39600163558005</v>
       </c>
       <c r="C46" t="n">
-        <v>63.81084255227061</v>
+        <v>63.81084255227059</v>
       </c>
       <c r="D46" t="n">
-        <v>45.17949447185514</v>
+        <v>45.17949447185511</v>
       </c>
       <c r="E46" t="n">
-        <v>42.99798410021195</v>
+        <v>42.99798410021192</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.985069476574</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>64.55500081210151</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>58.79119396108233</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>52.01449638090104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.85741283081227</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.580619490615</v>
+        <v>54.06503042492848</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>124.5096108819242</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>148.7016647774707</v>
       </c>
       <c r="W46" t="n">
-        <v>112.7616827451381</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>122.2736768426799</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.1486748057376</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623176.9848229684</v>
+        <v>623176.9848229683</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>665251.7933909943</v>
+        <v>665251.7933909944</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646401.254847316</v>
+        <v>646401.2548473158</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681689.0876173401</v>
+        <v>681689.08761734</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>574401.5368172786</v>
+        <v>574401.5368172787</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554693.8584032574</v>
+        <v>554693.8584032577</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
         <v>819276.3387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170382</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
         <v>647805.2361770226</v>
@@ -26329,13 +26329,13 @@
         <v>685864.6178555583</v>
       </c>
       <c r="H2" t="n">
-        <v>685864.6178555583</v>
+        <v>685864.6178555578</v>
       </c>
       <c r="I2" t="n">
-        <v>731270.8584414875</v>
+        <v>731270.8584414877</v>
       </c>
       <c r="J2" t="n">
-        <v>706136.8070499164</v>
+        <v>706136.8070499161</v>
       </c>
       <c r="K2" t="n">
         <v>706136.8070499161</v>
@@ -26344,16 +26344,16 @@
         <v>809286.9955006496</v>
       </c>
       <c r="M2" t="n">
+        <v>763880.7549147204</v>
+      </c>
+      <c r="N2" t="n">
         <v>763880.7549147205</v>
       </c>
-      <c r="N2" t="n">
-        <v>763880.7549147203</v>
-      </c>
       <c r="O2" t="n">
-        <v>620830.6871813048</v>
+        <v>620830.6871813044</v>
       </c>
       <c r="P2" t="n">
-        <v>594553.7826292762</v>
+        <v>594553.7826292763</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>8645.484185016336</v>
       </c>
       <c r="G3" t="n">
-        <v>12959.82731594057</v>
+        <v>12959.82731594053</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>87082.41262920297</v>
       </c>
       <c r="K3" t="n">
-        <v>8645.484185016336</v>
+        <v>8645.484185016312</v>
       </c>
       <c r="L3" t="n">
-        <v>82748.78283708576</v>
+        <v>82748.7828370858</v>
       </c>
       <c r="M3" t="n">
         <v>23431.78330691611</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>290092.1992863079</v>
+        <v>289278.4373845363</v>
       </c>
       <c r="F4" t="n">
-        <v>300316.6028928243</v>
+        <v>299502.8409910527</v>
       </c>
       <c r="G4" t="n">
-        <v>311742.4404022114</v>
+        <v>310928.6785004397</v>
       </c>
       <c r="H4" t="n">
-        <v>311742.4404022114</v>
+        <v>310928.6785004397</v>
       </c>
       <c r="I4" t="n">
-        <v>332566.9606427411</v>
+        <v>331693.2009157324</v>
       </c>
       <c r="J4" t="n">
-        <v>318313.8033742734</v>
+        <v>317440.0436472649</v>
       </c>
       <c r="K4" t="n">
-        <v>318313.8033742735</v>
+        <v>317440.0436472648</v>
       </c>
       <c r="L4" t="n">
-        <v>376925.9643466244</v>
+        <v>376052.2046196158</v>
       </c>
       <c r="M4" t="n">
-        <v>356101.4441060948</v>
+        <v>355287.6822043232</v>
       </c>
       <c r="N4" t="n">
-        <v>356101.4441060947</v>
+        <v>355287.6822043231</v>
       </c>
       <c r="O4" t="n">
-        <v>274662.3783958357</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="P4" t="n">
-        <v>259637.7066076884</v>
+        <v>258823.9447059167</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25495.99270415076</v>
+        <v>25495.99270415077</v>
       </c>
       <c r="F5" t="n">
         <v>26404.51421658844</v>
@@ -26494,7 +26494,7 @@
         <v>35012.11084765165</v>
       </c>
       <c r="K5" t="n">
-        <v>35012.11084765165</v>
+        <v>35012.11084765164</v>
       </c>
       <c r="L5" t="n">
         <v>42345.97047478559</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370353.575782055</v>
+        <v>370876.3401040794</v>
       </c>
       <c r="C6" t="n">
-        <v>370353.5757820548</v>
+        <v>370876.3401040794</v>
       </c>
       <c r="D6" t="n">
-        <v>370353.5757820547</v>
+        <v>370876.3401040795</v>
       </c>
       <c r="E6" t="n">
-        <v>157080.0031227926</v>
+        <v>157893.7650245641</v>
       </c>
       <c r="F6" t="n">
-        <v>330352.0781139467</v>
+        <v>331165.8400157184</v>
       </c>
       <c r="G6" t="n">
-        <v>333395.9362675382</v>
+        <v>334209.6981693098</v>
       </c>
       <c r="H6" t="n">
-        <v>346355.7635834787</v>
+        <v>347169.5254852499</v>
       </c>
       <c r="I6" t="n">
-        <v>322913.4910177803</v>
+        <v>323787.250744789</v>
       </c>
       <c r="J6" t="n">
-        <v>265728.4801987883</v>
+        <v>266602.2399257966</v>
       </c>
       <c r="K6" t="n">
-        <v>344165.4086429746</v>
+        <v>345039.1683699834</v>
       </c>
       <c r="L6" t="n">
-        <v>307266.2778421537</v>
+        <v>308140.0375691624</v>
       </c>
       <c r="M6" t="n">
-        <v>350938.413760941</v>
+        <v>351752.1756627125</v>
       </c>
       <c r="N6" t="n">
-        <v>374370.197067857</v>
+        <v>375183.9589696288</v>
       </c>
       <c r="O6" t="n">
-        <v>321910.359228856</v>
+        <v>322724.1211306273</v>
       </c>
       <c r="P6" t="n">
-        <v>311566.6479774124</v>
+        <v>312380.4098791842</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>155.9759852752682</v>
       </c>
       <c r="J2" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K2" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L2" t="n">
         <v>223.0958495641314</v>
@@ -26920,7 +26920,7 @@
         <v>10.80685523127042</v>
       </c>
       <c r="G2" t="n">
-        <v>16.19978414492571</v>
+        <v>16.19978414492567</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>108.8530157865037</v>
       </c>
       <c r="K2" t="n">
-        <v>10.80685523127042</v>
+        <v>10.80685523127039</v>
       </c>
       <c r="L2" t="n">
-        <v>103.4359785463572</v>
+        <v>103.4359785463573</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>10.80685523127042</v>
       </c>
       <c r="L2" t="n">
-        <v>16.19978414492571</v>
+        <v>16.19978414492567</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>108.8530157865037</v>
       </c>
       <c r="P2" t="n">
-        <v>10.80685523127042</v>
+        <v>10.80685523127039</v>
       </c>
     </row>
     <row r="3">
@@ -28178,13 +28178,13 @@
         <v>128.9693458990721</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>128.9693458990721</v>
       </c>
       <c r="G12" t="n">
-        <v>66.49403421936606</v>
+        <v>128.9693458990721</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>49.76013255679007</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -28235,7 +28235,7 @@
         <v>128.9693458990721</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.9693458990721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,7 +28269,7 @@
         <v>128.9693458990721</v>
       </c>
       <c r="J13" t="n">
-        <v>128.9693458990721</v>
+        <v>120.1547365652989</v>
       </c>
       <c r="K13" t="n">
         <v>128.9693458990721</v>
@@ -28284,7 +28284,7 @@
         <v>128.9693458990721</v>
       </c>
       <c r="O13" t="n">
-        <v>120.154736565299</v>
+        <v>128.9693458990721</v>
       </c>
       <c r="P13" t="n">
         <v>128.9693458990721</v>
@@ -28421,7 +28421,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>22.66838790132037</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="T15" t="n">
         <v>139.7762011303425</v>
@@ -28466,7 +28466,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="W15" t="n">
-        <v>139.7762011303425</v>
+        <v>22.66838790132002</v>
       </c>
       <c r="X15" t="n">
         <v>139.7762011303425</v>
@@ -28512,7 +28512,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="L16" t="n">
-        <v>44.50674994640602</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="M16" t="n">
         <v>139.7762011303425</v>
@@ -28521,7 +28521,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7762011303425</v>
+        <v>44.50674994640595</v>
       </c>
       <c r="P16" t="n">
         <v>139.7762011303425</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>155.9759852752682</v>
+        <v>153.0216140651065</v>
       </c>
       <c r="C18" t="n">
-        <v>155.9759852752682</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>119.4431323363165</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -28661,7 +28661,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28725,13 +28725,13 @@
         <v>155.9759852752682</v>
       </c>
       <c r="D19" t="n">
-        <v>155.9759852752682</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>155.9759852752682</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>155.9759852752682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>155.9759852752682</v>
@@ -28740,22 +28740,22 @@
         <v>155.9759852752682</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="J19" t="n">
-        <v>135.6706088858269</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>46.97389873335314</v>
+      </c>
+      <c r="N19" t="n">
         <v>155.9759852752682</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>155.9759852752682</v>
@@ -28880,7 +28880,7 @@
         <v>155.9759852752682</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9759852752682</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28892,7 +28892,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>90.12996994099834</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -28901,7 +28901,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="T21" t="n">
         <v>155.9759852752682</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>155.9759852752682</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
+        <v>10.68069428326055</v>
+      </c>
+      <c r="X21" t="n">
         <v>155.9759852752682</v>
       </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>120.1897236625742</v>
+        <v>155.9759852752682</v>
       </c>
     </row>
     <row r="22">
@@ -28968,7 +28968,7 @@
         <v>155.9759852752682</v>
       </c>
       <c r="F22" t="n">
-        <v>155.9759852752682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>155.9759852752682</v>
@@ -28977,19 +28977,19 @@
         <v>155.9759852752682</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="J22" t="n">
         <v>155.9759852752682</v>
       </c>
       <c r="K22" t="n">
-        <v>135.6706088858268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>155.9759852752682</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>123.430543964271</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29065,25 +29065,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>119.9266671075432</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>155.9759852752682</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
-        <v>136.0242336562067</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
         <v>155.9759852752682</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>155.9759852752682</v>
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>155.9759852752682</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>155.9759852752682</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>155.9759852752682</v>
+        <v>106.1919913181917</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>79.0286034955046</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>155.9759852752682</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>155.9759852752682</v>
@@ -29199,13 +29199,13 @@
         <v>155.9759852752682</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="F25" t="n">
-        <v>152.5731437715817</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="G25" t="n">
         <v>155.9759852752682</v>
@@ -29214,7 +29214,7 @@
         <v>155.9759852752682</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>155.9759852752682</v>
       </c>
       <c r="J25" t="n">
         <v>155.9759852752682</v>
@@ -29223,11 +29223,11 @@
         <v>155.9759852752682</v>
       </c>
       <c r="L25" t="n">
+        <v>132.4236578027104</v>
+      </c>
+      <c r="M25" t="n">
         <v>155.9759852752682</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>155.9759852752682</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>155.9759852752682</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J26" t="n">
-        <v>60.51356883121181</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L26" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>60.51356883121198</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y26" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="27">
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D27" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>40.98930940826931</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F27" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29402,25 +29402,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T27" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U27" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>135.8596551626999</v>
+        <v>64.61352033447326</v>
       </c>
       <c r="X27" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="M28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="O28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="P28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>60.51356883121204</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N29" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>60.5135688312119</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="30">
@@ -29588,31 +29588,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C30" t="n">
-        <v>99.56875001827159</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>135.8596551626999</v>
+        <v>130.3859422596854</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="M31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="O31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="P31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="32">
@@ -29767,37 +29767,37 @@
         <v>223.0958495641314</v>
       </c>
       <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>135.8205017845912</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="J32" t="n">
+      <c r="P32" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>57.8380187591556</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>223.0958495641314</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>223.0958495641314</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>223.0958495641314</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>123.0969337984239</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29849,7 +29849,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>102.8209711838158</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29949,10 +29949,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>117.6786730864507</v>
       </c>
       <c r="R34" t="n">
-        <v>208.8100212119257</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>223.0958495641314</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -30071,22 +30071,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>22.00691837567913</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -30122,10 +30122,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>223.0958495641314</v>
-      </c>
-      <c r="W36" t="n">
-        <v>25.4859328951616</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>198.7634509333841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30168,7 +30168,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>53.78612166063914</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30299,31 +30299,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>83.88067197567818</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -30356,13 +30356,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>207.7023423509711</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>211.3486100166936</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30426,7 +30426,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>208.8100212119257</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>223.0958495641314</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.61016578239932</v>
+        <v>26.79555644862609</v>
       </c>
       <c r="K13" t="n">
-        <v>106.6998540731892</v>
+        <v>106.6998540731893</v>
       </c>
       <c r="L13" t="n">
-        <v>156.5593711593882</v>
+        <v>156.5593711593883</v>
       </c>
       <c r="M13" t="n">
         <v>168.5532228609127</v>
@@ -35580,13 +35580,13 @@
         <v>173.1015182783007</v>
       </c>
       <c r="O13" t="n">
-        <v>144.7398644793387</v>
+        <v>153.5544738131118</v>
       </c>
       <c r="P13" t="n">
         <v>126.2479051639656</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.80730264737771</v>
+        <v>42.80730264737774</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>91.0829537758999</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.41702101366974</v>
+        <v>46.41702101366977</v>
       </c>
       <c r="K16" t="n">
         <v>117.5067093044597</v>
       </c>
       <c r="L16" t="n">
-        <v>72.09677520672216</v>
+        <v>167.3662263906587</v>
       </c>
       <c r="M16" t="n">
         <v>179.3600780921831</v>
@@ -35817,13 +35817,13 @@
         <v>183.9083735095711</v>
       </c>
       <c r="O16" t="n">
-        <v>164.3613290443822</v>
+        <v>69.09187786044562</v>
       </c>
       <c r="P16" t="n">
         <v>137.054760395236</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.61415787864813</v>
+        <v>53.61415787864816</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35972,16 +35972,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,13 +36021,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.360512257055859</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9.542022628699044</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>10.55493725233697</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36036,22 +36036,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.5255103480099308</v>
       </c>
       <c r="J19" t="n">
-        <v>42.31142876915409</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>133.7064934493854</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>86.55777569519373</v>
       </c>
       <c r="N19" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1081576544968</v>
       </c>
       <c r="O19" t="n">
         <v>180.5611131893079</v>
@@ -36203,7 +36203,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,10 +36212,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36264,7 +36264,7 @@
         <v>9.542022628699044</v>
       </c>
       <c r="F22" t="n">
-        <v>10.55493725233697</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36273,19 +36273,19 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.5255103480099308</v>
       </c>
       <c r="J22" t="n">
         <v>62.61680515859544</v>
       </c>
       <c r="K22" t="n">
-        <v>113.401117059944</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>183.5660105355844</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>163.0144209261115</v>
       </c>
       <c r="N22" t="n">
         <v>44.13217237922859</v>
@@ -36361,25 +36361,25 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>337.8707848557314</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655598</v>
+        <v>339.0939673731029</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>306.6779551163269</v>
       </c>
       <c r="P23" t="n">
-        <v>226.5899460724198</v>
+        <v>246.5416976914813</v>
       </c>
       <c r="Q23" t="n">
-        <v>145.9852860607234</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.106867334118533</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36495,13 +36495,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>7.360512257055859</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9.542022628699044</v>
       </c>
       <c r="F25" t="n">
-        <v>7.152095748650487</v>
+        <v>10.55493725233697</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5255103480099308</v>
       </c>
       <c r="J25" t="n">
         <v>62.61680515859544</v>
@@ -36519,10 +36519,10 @@
         <v>133.7064934493854</v>
       </c>
       <c r="L25" t="n">
-        <v>183.5660105355844</v>
+        <v>160.0136830630266</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>195.5598622371088</v>
       </c>
       <c r="N25" t="n">
         <v>44.13217237922859</v>
@@ -36531,7 +36531,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
-        <v>153.2545445401617</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>69.81394202357383</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>48.5642794765993</v>
+        <v>123.9103658080873</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>239.915216688884</v>
       </c>
       <c r="L26" t="n">
-        <v>317.754454743163</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>279.6808690967717</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>286.5616250037585</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>226.425367578913</v>
+        <v>226.4253675789129</v>
       </c>
       <c r="Q26" t="n">
         <v>125.868955948155</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.50047504602708</v>
+        <v>42.50047504602702</v>
       </c>
       <c r="K28" t="n">
-        <v>113.590163336817</v>
+        <v>113.5901633368169</v>
       </c>
       <c r="L28" t="n">
-        <v>163.449680423016</v>
+        <v>163.4496804230159</v>
       </c>
       <c r="M28" t="n">
         <v>175.4435321245404</v>
@@ -36771,7 +36771,7 @@
         <v>133.1382144275933</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.69761191100547</v>
+        <v>49.69761191100541</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9103658080873</v>
+        <v>123.9103658080872</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>164.5691303573962</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>355.0269554282595</v>
       </c>
       <c r="N29" t="n">
-        <v>343.7935159780931</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>211.2155386722705</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>226.425367578913</v>
+        <v>226.4253675789129</v>
       </c>
       <c r="Q29" t="n">
         <v>125.868955948155</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.50047504602708</v>
+        <v>42.50047504602699</v>
       </c>
       <c r="K31" t="n">
-        <v>113.590163336817</v>
+        <v>113.5901633368169</v>
       </c>
       <c r="L31" t="n">
-        <v>163.449680423016</v>
+        <v>163.4496804230159</v>
       </c>
       <c r="M31" t="n">
         <v>175.4435321245404</v>
@@ -37002,13 +37002,13 @@
         <v>179.9918275419284</v>
       </c>
       <c r="O31" t="n">
-        <v>160.4447830767395</v>
+        <v>160.4447830767394</v>
       </c>
       <c r="P31" t="n">
         <v>133.1382144275933</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.69761191100547</v>
+        <v>49.69761191100538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.61995999372544</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>211.1465602095188</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37075,25 +37075,25 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>354.987802050151</v>
       </c>
       <c r="N32" t="n">
-        <v>265.7718795745488</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>373.79781940519</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>313.6615619803445</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.1051503495866</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.22673162298167</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.07577997788601</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>31.51662983475627</v>
       </c>
       <c r="R34" t="n">
-        <v>31.51662983475627</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37440,31 +37440,31 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>31.51662983475629</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>27.59002526031614</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37631,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>31.51662983475627</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>31.51662983475627</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,16 +38105,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>10.07679842968444</v>
+        <v>10.07679842968447</v>
       </c>
       <c r="K46" t="n">
-        <v>81.16648672047437</v>
+        <v>81.1664867204744</v>
       </c>
       <c r="L46" t="n">
         <v>131.0260038066734</v>
@@ -38193,7 +38193,7 @@
         <v>100.7145378112507</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.27393529466283</v>
+        <v>17.27393529466286</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
